--- a/TestAutomataDFA_NFA/ResultadosFinal/RepCiberia.dot_CONTINUO_258881541430538.xlsx
+++ b/TestAutomataDFA_NFA/ResultadosFinal/RepCiberia.dot_CONTINUO_258881541430538.xlsx
@@ -12303,7 +12303,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -18341,11 +18341,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="411101128"/>
-        <c:axId val="411101912"/>
+        <c:axId val="208161256"/>
+        <c:axId val="208161648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="411101128"/>
+        <c:axId val="208161256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18388,7 +18388,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411101912"/>
+        <c:crossAx val="208161648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18396,7 +18396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="411101912"/>
+        <c:axId val="208161648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18437,13 +18437,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Time</a:t>
+                  <a:t>Time (ms)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="es-ES" baseline="0"/>
-                  <a:t> (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -18508,7 +18503,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411101128"/>
+        <c:crossAx val="208161256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -18524,7 +18519,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -19451,7 +19446,7 @@
   <dimension ref="A1:J1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
